--- a/biology/Botanique/Paldiski_maantee/Paldiski_maantee.xlsx
+++ b/biology/Botanique/Paldiski_maantee/Paldiski_maantee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La route de Paldiski (estonien : Paldiski maantee) est une rue du nord de Tallinn en Estonie[1].
+La route de Paldiski (estonien : Paldiski maantee) est une rue du nord de Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue part du centre-ville, depuis le boulevard Toompuiestie, en direction de l'ouest, longe les frontières des arrondissements Tallinn-Nord et de Kesklinn, puis Tallinn-Nord  et de Kristiine, enfin, Tallinn-Nord et de l'Haabersti et et la fin de la rue se trouve dans l'arrondissement de Haabersti où elle atteint la frontière de la ville et où elle croise la route Tallinn-Paldiski. 
 Sa longueur est de 9,747 km, c'est l'une des rues les plus longues de la ville.
@@ -552,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
